--- a/4-supprimer-la-notion-de-portabilité-dans-ig/ig/StructureDefinition-tddui-documentreference.xlsx
+++ b/4-supprimer-la-notion-de-portabilité-dans-ig/ig/StructureDefinition-tddui-documentreference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-02T14:30:44+00:00</t>
+    <t>2025-07-03T09:01:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/4-supprimer-la-notion-de-portabilité-dans-ig/ig/StructureDefinition-tddui-documentreference.xlsx
+++ b/4-supprimer-la-notion-de-portabilité-dans-ig/ig/StructureDefinition-tddui-documentreference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-03T09:01:31+00:00</t>
+    <t>2025-07-04T15:17:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
